--- a/Test.xlsx
+++ b/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name1</t>
   </si>
@@ -29,28 +29,28 @@
     <t>CC</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Sub AA</t>
   </si>
   <si>
-    <t>555</t>
+    <t>ZZZ</t>
   </si>
   <si>
-    <t>NestedListObj1</t>
+    <t>Name2</t>
   </si>
   <si>
-    <t>666</t>
+    <t>2</t>
   </si>
   <si>
-    <t>777</t>
+    <t>XX</t>
   </si>
   <si>
-    <t>999</t>
+    <t>YY</t>
   </si>
   <si>
-    <t>ZZZ</t>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>Sub BB</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,15 +117,6 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="C2" t="s">
@@ -137,12 +128,31 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="F5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
